--- a/CSV/Accessories.xlsx
+++ b/CSV/Accessories.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\SoftwareAssignment1\CSV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp72\htdocs\PoEEquips\CSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{330310A5-FAB9-4215-B0E0-9340A01CD8F3}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8532" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -506,21 +507,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.77734375" customWidth="1"/>
-    <col min="2" max="2" width="24.44140625" customWidth="1"/>
-    <col min="3" max="3" width="15.21875" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" customWidth="1"/>
-    <col min="6" max="6" width="40.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.81640625" customWidth="1"/>
+    <col min="2" max="2" width="24.453125" customWidth="1"/>
+    <col min="3" max="3" width="15.1796875" customWidth="1"/>
+    <col min="5" max="5" width="16.6328125" customWidth="1"/>
+    <col min="6" max="6" width="40.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -543,7 +544,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -551,16 +552,13 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <f ca="1">ROUND(RAND() *100,0)</f>
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:E17" ca="1" si="0">ROUND(RAND() *100,0)</f>
-        <v>87</v>
+        <v>35</v>
       </c>
       <c r="E2">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="F2" t="str">
         <f>CONCATENATE(CONCATENATE("helmets/", SUBSTITUTE(B2, " ", "")), ".png")</f>
@@ -570,7 +568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -578,16 +576,16 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:E32" ca="1" si="1">ROUND(RAND() *100,0)</f>
-        <v>50</v>
+        <f t="shared" ref="C3:E32" ca="1" si="0">ROUND(RAND() *100,0)</f>
+        <v>77</v>
       </c>
       <c r="D3">
-        <f t="shared" ca="1" si="0"/>
-        <v>54</v>
+        <f t="shared" ref="D2:E17" ca="1" si="1">ROUND(RAND() *100,0)</f>
+        <v>82</v>
       </c>
       <c r="E3">
-        <f t="shared" ca="1" si="0"/>
-        <v>57</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>95</v>
       </c>
       <c r="F3" t="str">
         <f t="shared" ref="F3:F7" si="2">CONCATENATE(CONCATENATE("helmets/", SUBSTITUTE(B3, " ", "")), ".png")</f>
@@ -597,7 +595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -605,16 +603,16 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <f t="shared" ca="1" si="1"/>
-        <v>73</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>19</v>
       </c>
       <c r="D4">
-        <f t="shared" ca="1" si="0"/>
-        <v>27</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
       </c>
       <c r="E4">
-        <f t="shared" ca="1" si="0"/>
-        <v>44</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>46</v>
       </c>
       <c r="F4" t="str">
         <f t="shared" si="2"/>
@@ -624,7 +622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -632,16 +630,16 @@
         <v>10</v>
       </c>
       <c r="C5">
+        <f t="shared" ca="1" si="0"/>
+        <v>93</v>
+      </c>
+      <c r="D5">
         <f t="shared" ca="1" si="1"/>
         <v>13</v>
       </c>
-      <c r="D5">
-        <f t="shared" ca="1" si="0"/>
-        <v>98</v>
-      </c>
       <c r="E5">
-        <f t="shared" ca="1" si="0"/>
-        <v>37</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>92</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" si="2"/>
@@ -651,7 +649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -659,16 +657,16 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <f t="shared" ca="1" si="1"/>
-        <v>78</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="D6">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>76</v>
       </c>
       <c r="E6">
-        <f t="shared" ca="1" si="0"/>
-        <v>17</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>88</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" si="2"/>
@@ -678,7 +676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -686,16 +684,16 @@
         <v>11</v>
       </c>
       <c r="C7">
-        <f t="shared" ca="1" si="1"/>
-        <v>55</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>75</v>
       </c>
       <c r="D7">
-        <f t="shared" ca="1" si="0"/>
-        <v>100</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>72</v>
       </c>
       <c r="E7">
-        <f t="shared" ca="1" si="0"/>
-        <v>91</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>13</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" si="2"/>
@@ -705,7 +703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -713,16 +711,16 @@
         <v>13</v>
       </c>
       <c r="C8">
-        <f t="shared" ca="1" si="1"/>
-        <v>22</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>42</v>
       </c>
       <c r="D8">
-        <f t="shared" ca="1" si="0"/>
-        <v>51</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>97</v>
       </c>
       <c r="E8">
-        <f t="shared" ca="1" si="0"/>
-        <v>32</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>63</v>
       </c>
       <c r="F8" t="str">
         <f>CONCATENATE(CONCATENATE("armors/", SUBSTITUTE(B8, " ", "")), ".png")</f>
@@ -732,7 +730,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -740,16 +738,16 @@
         <v>14</v>
       </c>
       <c r="C9">
-        <f t="shared" ca="1" si="1"/>
-        <v>29</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
       </c>
       <c r="D9">
-        <f t="shared" ca="1" si="0"/>
-        <v>49</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>85</v>
       </c>
       <c r="E9">
-        <f t="shared" ca="1" si="0"/>
-        <v>100</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>22</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" ref="F9:F13" si="3">CONCATENATE(CONCATENATE("armors/", SUBSTITUTE(B9, " ", "")), ".png")</f>
@@ -759,7 +757,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -767,16 +765,16 @@
         <v>15</v>
       </c>
       <c r="C10">
-        <f t="shared" ca="1" si="1"/>
-        <v>63</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>36</v>
       </c>
       <c r="D10">
-        <f t="shared" ca="1" si="0"/>
-        <v>56</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>29</v>
       </c>
       <c r="E10">
-        <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>19</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" si="3"/>
@@ -786,7 +784,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -794,16 +792,16 @@
         <v>16</v>
       </c>
       <c r="C11">
-        <f t="shared" ca="1" si="1"/>
-        <v>65</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>56</v>
       </c>
       <c r="D11">
-        <f t="shared" ca="1" si="0"/>
-        <v>30</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>98</v>
       </c>
       <c r="E11">
-        <f t="shared" ca="1" si="0"/>
-        <v>35</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>43</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="3"/>
@@ -813,7 +811,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -821,16 +819,16 @@
         <v>17</v>
       </c>
       <c r="C12">
-        <f t="shared" ca="1" si="1"/>
-        <v>53</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>32</v>
       </c>
       <c r="D12">
-        <f t="shared" ca="1" si="0"/>
-        <v>25</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>99</v>
       </c>
       <c r="E12">
-        <f t="shared" ca="1" si="0"/>
-        <v>97</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>19</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" si="3"/>
@@ -840,7 +838,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -848,16 +846,16 @@
         <v>18</v>
       </c>
       <c r="C13">
-        <f t="shared" ca="1" si="1"/>
-        <v>22</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>29</v>
       </c>
       <c r="D13">
-        <f t="shared" ca="1" si="0"/>
-        <v>28</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>16</v>
       </c>
       <c r="E13">
-        <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>83</v>
       </c>
       <c r="F13" t="str">
         <f t="shared" si="3"/>
@@ -867,7 +865,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -875,16 +873,16 @@
         <v>19</v>
       </c>
       <c r="C14">
-        <f t="shared" ca="1" si="1"/>
-        <v>34</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>99</v>
       </c>
       <c r="D14">
-        <f t="shared" ca="1" si="0"/>
-        <v>74</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>11</v>
       </c>
       <c r="E14">
-        <f t="shared" ca="1" si="0"/>
-        <v>78</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>50</v>
       </c>
       <c r="F14" t="str">
         <f>CONCATENATE(CONCATENATE("shields/", SUBSTITUTE(B14, " ", "")), ".png")</f>
@@ -894,7 +892,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -902,16 +900,16 @@
         <v>20</v>
       </c>
       <c r="C15">
-        <f t="shared" ca="1" si="1"/>
-        <v>31</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>86</v>
       </c>
       <c r="D15">
-        <f t="shared" ca="1" si="0"/>
-        <v>25</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>29</v>
       </c>
       <c r="E15">
-        <f t="shared" ca="1" si="0"/>
-        <v>41</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>9</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" ref="F15:F19" si="4">CONCATENATE(CONCATENATE("shields/", SUBSTITUTE(B15, " ", "")), ".png")</f>
@@ -921,7 +919,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -929,16 +927,16 @@
         <v>21</v>
       </c>
       <c r="C16">
-        <f t="shared" ca="1" si="1"/>
-        <v>72</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>15</v>
       </c>
       <c r="D16">
-        <f t="shared" ca="1" si="0"/>
-        <v>57</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>34</v>
       </c>
       <c r="E16">
-        <f t="shared" ca="1" si="0"/>
-        <v>84</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>13</v>
       </c>
       <c r="F16" t="str">
         <f t="shared" si="4"/>
@@ -948,7 +946,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -956,16 +954,16 @@
         <v>22</v>
       </c>
       <c r="C17">
-        <f t="shared" ca="1" si="1"/>
-        <v>76</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>73</v>
       </c>
       <c r="D17">
-        <f t="shared" ca="1" si="0"/>
-        <v>39</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>70</v>
       </c>
       <c r="E17">
-        <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>10</v>
       </c>
       <c r="F17" t="str">
         <f t="shared" si="4"/>
@@ -975,7 +973,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -983,16 +981,16 @@
         <v>23</v>
       </c>
       <c r="C18">
-        <f t="shared" ca="1" si="1"/>
-        <v>93</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>17</v>
       </c>
       <c r="D18">
-        <f t="shared" ca="1" si="1"/>
-        <v>35</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>71</v>
       </c>
       <c r="E18">
-        <f t="shared" ca="1" si="1"/>
-        <v>35</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>63</v>
       </c>
       <c r="F18" t="str">
         <f t="shared" si="4"/>
@@ -1002,7 +1000,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1010,16 +1008,16 @@
         <v>24</v>
       </c>
       <c r="C19">
-        <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>85</v>
       </c>
       <c r="D19">
-        <f t="shared" ca="1" si="1"/>
-        <v>69</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>50</v>
       </c>
       <c r="E19">
-        <f t="shared" ca="1" si="1"/>
-        <v>40</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>99</v>
       </c>
       <c r="F19" t="str">
         <f t="shared" si="4"/>
@@ -1029,7 +1027,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1037,16 +1035,16 @@
         <v>31</v>
       </c>
       <c r="C20">
-        <f t="shared" ca="1" si="1"/>
-        <v>21</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>27</v>
       </c>
       <c r="D20">
-        <f t="shared" ca="1" si="1"/>
-        <v>100</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>36</v>
       </c>
       <c r="E20">
-        <f t="shared" ca="1" si="1"/>
-        <v>55</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>42</v>
       </c>
       <c r="F20" t="str">
         <f>CONCATENATE(CONCATENATE("weapon/", SUBSTITUTE(B20, " ", "")), ".png")</f>
@@ -1056,7 +1054,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1064,16 +1062,16 @@
         <v>32</v>
       </c>
       <c r="C21">
-        <f t="shared" ca="1" si="1"/>
-        <v>29</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>91</v>
       </c>
       <c r="D21">
-        <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>56</v>
       </c>
       <c r="E21">
-        <f t="shared" ca="1" si="1"/>
-        <v>31</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>23</v>
       </c>
       <c r="F21" t="str">
         <f t="shared" ref="F21:F25" si="5">CONCATENATE(CONCATENATE("weapon/", SUBSTITUTE(B21, " ", "")), ".png")</f>
@@ -1083,7 +1081,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1091,16 +1089,16 @@
         <v>33</v>
       </c>
       <c r="C22">
-        <f t="shared" ca="1" si="1"/>
-        <v>98</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>85</v>
       </c>
       <c r="D22">
-        <f t="shared" ca="1" si="1"/>
-        <v>48</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>52</v>
       </c>
       <c r="E22">
-        <f t="shared" ca="1" si="1"/>
-        <v>64</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>75</v>
       </c>
       <c r="F22" t="str">
         <f t="shared" si="5"/>
@@ -1110,7 +1108,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1118,16 +1116,16 @@
         <v>34</v>
       </c>
       <c r="C23">
-        <f t="shared" ca="1" si="1"/>
-        <v>62</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="D23">
-        <f t="shared" ca="1" si="1"/>
-        <v>64</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
       </c>
       <c r="E23">
-        <f t="shared" ca="1" si="1"/>
-        <v>92</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>84</v>
       </c>
       <c r="F23" t="str">
         <f t="shared" si="5"/>
@@ -1137,7 +1135,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1145,16 +1143,16 @@
         <v>35</v>
       </c>
       <c r="C24">
-        <f t="shared" ca="1" si="1"/>
-        <v>65</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>12</v>
       </c>
       <c r="D24">
-        <f t="shared" ca="1" si="1"/>
-        <v>32</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>50</v>
       </c>
       <c r="E24">
-        <f t="shared" ca="1" si="1"/>
-        <v>50</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>81</v>
       </c>
       <c r="F24" t="str">
         <f t="shared" si="5"/>
@@ -1164,7 +1162,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1172,16 +1170,16 @@
         <v>36</v>
       </c>
       <c r="C25">
-        <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
       </c>
       <c r="D25">
-        <f t="shared" ca="1" si="1"/>
-        <v>94</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>22</v>
       </c>
       <c r="E25">
-        <f t="shared" ca="1" si="1"/>
-        <v>94</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>84</v>
       </c>
       <c r="F25" t="str">
         <f t="shared" si="5"/>
@@ -1191,7 +1189,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1199,16 +1197,16 @@
         <v>25</v>
       </c>
       <c r="C26">
-        <f t="shared" ca="1" si="1"/>
-        <v>100</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>25</v>
       </c>
       <c r="D26">
-        <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>81</v>
       </c>
       <c r="E26">
-        <f t="shared" ca="1" si="1"/>
-        <v>100</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>89</v>
       </c>
       <c r="F26" t="str">
         <f>CONCATENATE(CONCATENATE("boots/", SUBSTITUTE(B26, " ", "")), ".png")</f>
@@ -1218,7 +1216,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1226,16 +1224,16 @@
         <v>26</v>
       </c>
       <c r="C27">
-        <f t="shared" ca="1" si="1"/>
-        <v>45</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>46</v>
       </c>
       <c r="D27">
-        <f t="shared" ca="1" si="1"/>
-        <v>24</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>34</v>
       </c>
       <c r="E27">
-        <f t="shared" ca="1" si="1"/>
-        <v>55</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>96</v>
       </c>
       <c r="F27" t="str">
         <f t="shared" ref="F27:F31" si="6">CONCATENATE(CONCATENATE("boots/", SUBSTITUTE(B27, " ", "")), ".png")</f>
@@ -1245,7 +1243,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1253,16 +1251,16 @@
         <v>27</v>
       </c>
       <c r="C28">
-        <f t="shared" ca="1" si="1"/>
-        <v>84</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43</v>
       </c>
       <c r="D28">
-        <f t="shared" ca="1" si="1"/>
-        <v>34</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>65</v>
       </c>
       <c r="E28">
-        <f t="shared" ca="1" si="1"/>
-        <v>32</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>94</v>
       </c>
       <c r="F28" t="str">
         <f t="shared" si="6"/>
@@ -1272,7 +1270,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1280,16 +1278,16 @@
         <v>28</v>
       </c>
       <c r="C29">
-        <f t="shared" ca="1" si="1"/>
-        <v>24</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>88</v>
       </c>
       <c r="D29">
-        <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43</v>
       </c>
       <c r="E29">
-        <f t="shared" ca="1" si="1"/>
-        <v>29</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>54</v>
       </c>
       <c r="F29" t="str">
         <f t="shared" si="6"/>
@@ -1299,7 +1297,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1307,16 +1305,16 @@
         <v>29</v>
       </c>
       <c r="C30">
-        <f t="shared" ca="1" si="1"/>
-        <v>16</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>80</v>
       </c>
       <c r="D30">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>22</v>
       </c>
       <c r="E30">
-        <f t="shared" ca="1" si="1"/>
-        <v>36</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>11</v>
       </c>
       <c r="F30" t="str">
         <f t="shared" si="6"/>
@@ -1326,7 +1324,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1334,16 +1332,16 @@
         <v>30</v>
       </c>
       <c r="C31">
-        <f t="shared" ca="1" si="1"/>
-        <v>18</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>15</v>
       </c>
       <c r="D31">
-        <f t="shared" ca="1" si="1"/>
-        <v>86</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
       </c>
       <c r="E31">
-        <f t="shared" ca="1" si="1"/>
-        <v>58</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>90</v>
       </c>
       <c r="F31" t="str">
         <f t="shared" si="6"/>
@@ -1353,7 +1351,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1361,16 +1359,16 @@
         <v>37</v>
       </c>
       <c r="C32">
-        <f t="shared" ca="1" si="1"/>
-        <v>86</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>28</v>
       </c>
       <c r="D32">
-        <f t="shared" ca="1" si="1"/>
-        <v>26</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>38</v>
       </c>
       <c r="E32">
-        <f t="shared" ca="1" si="1"/>
-        <v>30</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>41</v>
       </c>
       <c r="F32" t="str">
         <f>CONCATENATE(CONCATENATE("gloves/", SUBSTITUTE(B32, " ", "")), ".png")</f>
@@ -1380,7 +1378,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1389,15 +1387,15 @@
       </c>
       <c r="C33">
         <f t="shared" ref="C33:E37" ca="1" si="7">ROUND(RAND() *100,0)</f>
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="D33">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <v>89</v>
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="F33" t="str">
         <f t="shared" ref="F33:F37" si="8">CONCATENATE(CONCATENATE("gloves/", SUBSTITUTE(B33, " ", "")), ".png")</f>
@@ -1407,7 +1405,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1416,15 +1414,15 @@
       </c>
       <c r="C34">
         <f t="shared" ca="1" si="7"/>
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="D34">
         <f t="shared" ca="1" si="7"/>
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="E34">
         <f t="shared" ca="1" si="7"/>
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="F34" t="str">
         <f t="shared" si="8"/>
@@ -1434,7 +1432,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1443,15 +1441,15 @@
       </c>
       <c r="C35">
         <f t="shared" ca="1" si="7"/>
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="D35">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="7"/>
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="F35" t="str">
         <f t="shared" si="8"/>
@@ -1461,7 +1459,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1470,15 +1468,15 @@
       </c>
       <c r="C36">
         <f t="shared" ca="1" si="7"/>
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="D36">
         <f t="shared" ca="1" si="7"/>
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="7"/>
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="F36" t="str">
         <f t="shared" si="8"/>
@@ -1488,7 +1486,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1497,15 +1495,15 @@
       </c>
       <c r="C37">
         <f t="shared" ca="1" si="7"/>
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="D37">
         <f t="shared" ca="1" si="7"/>
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="7"/>
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="F37" t="str">
         <f t="shared" si="8"/>
